--- a/Analyse/Hugo/scenariiHugo.xlsx
+++ b/Analyse/Hugo/scenariiHugo.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\testDeVerinSurBancHydraulique\Analyse\Hugo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof25\Desktop\testDeVerinSurBancHydraulique\Analyse\Hugo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391BF78F-3382-4E16-A2C5-9EA470E031CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{C82BE3CA-79FC-439A-99EF-82BC0495A980}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Étapes</t>
   </si>
@@ -67,13 +66,37 @@
     <t>Je glisse le fichier contenant l'affaire sur le poste controlleur</t>
   </si>
   <si>
-    <t>Le poste controlleur attend le fichier pour l'extraire</t>
+    <t>Le fichier est accessible par le poste controlleur</t>
+  </si>
+  <si>
+    <t>Le poste contrôleur a accès au support</t>
+  </si>
+  <si>
+    <t>Le poste controlleur récupère le support</t>
+  </si>
+  <si>
+    <t>Lecture du support par le poste controlleur</t>
+  </si>
+  <si>
+    <t>Extraction de l'affaire depuis le support</t>
+  </si>
+  <si>
+    <t>Le contrôlleur s'identifie pour envoyer l'affaire</t>
+  </si>
+  <si>
+    <t>L'identification a réussie, l'envoie de l'affaire peut être effectuée</t>
+  </si>
+  <si>
+    <t>Envoie de l'affaire vers la Base de Données</t>
+  </si>
+  <si>
+    <t>La BDD reçois l'affaire</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,6 +215,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -202,9 +228,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -520,11 +543,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56CEBB8A-0EE4-473B-B871-5AE785FB59B7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,12 +558,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
@@ -557,118 +580,134 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>2</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>3</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1</v>
       </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
+      <c r="B8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>2</v>
       </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
+      <c r="B9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>3</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1</v>
       </c>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="B12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>2</v>
       </c>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1</v>
       </c>
-      <c r="B16" s="1"/>
+      <c r="B16" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
@@ -676,7 +715,7 @@
       <c r="A17" s="3">
         <v>2</v>
       </c>
-      <c r="B17" s="1"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
@@ -684,7 +723,7 @@
       <c r="A18" s="3">
         <v>3</v>
       </c>
-      <c r="B18" s="1"/>
+      <c r="B18" s="4"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>

--- a/Analyse/Hugo/scenariiHugo.xlsx
+++ b/Analyse/Hugo/scenariiHugo.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hugof25\Desktop\testDeVerinSurBancHydraulique\Analyse\Hugo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\testDeVerinSurBancHydraulique\Analyse\Hugo\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F301451F-68CB-4B24-A7D5-69EE71B28A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120"/>
+    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -19,22 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Étapes</t>
   </si>
@@ -51,52 +42,94 @@
     <t>Stockage d'une affaire dans la BDD</t>
   </si>
   <si>
-    <t>Réception d'un support contenant l'affaire</t>
-  </si>
-  <si>
-    <t>Extraire l'affaire du support</t>
-  </si>
-  <si>
-    <t>Envoyer l'affaire extraite vers la BDD</t>
-  </si>
-  <si>
-    <t>La BDD stocke l'affaire envoyée</t>
-  </si>
-  <si>
     <t>Je glisse le fichier contenant l'affaire sur le poste controlleur</t>
   </si>
   <si>
-    <t>Le fichier est accessible par le poste controlleur</t>
-  </si>
-  <si>
-    <t>Le poste contrôleur a accès au support</t>
-  </si>
-  <si>
-    <t>Le poste controlleur récupère le support</t>
-  </si>
-  <si>
-    <t>Lecture du support par le poste controlleur</t>
-  </si>
-  <si>
-    <t>Extraction de l'affaire depuis le support</t>
-  </si>
-  <si>
-    <t>Le contrôlleur s'identifie pour envoyer l'affaire</t>
-  </si>
-  <si>
-    <t>L'identification a réussie, l'envoie de l'affaire peut être effectuée</t>
-  </si>
-  <si>
-    <t>Envoie de l'affaire vers la Base de Données</t>
-  </si>
-  <si>
-    <t>La BDD reçois l'affaire</t>
+    <t>Je clique sur le bouton pour envoyer le fichier</t>
+  </si>
+  <si>
+    <t>Réception du fichier</t>
+  </si>
+  <si>
+    <t>Le fichier est appelé via une API pour être envoyer au serveur</t>
+  </si>
+  <si>
+    <t>Le serveur reçois le fichier</t>
+  </si>
+  <si>
+    <t>Envoi du fichier vers le décryptage</t>
+  </si>
+  <si>
+    <t>Envoi de l'affaire dans la BDD</t>
+  </si>
+  <si>
+    <t>Une fonction décryptage décrypte le fichier et retourne l'affaire</t>
+  </si>
+  <si>
+    <t>L'affaire est envoyé dans la Base de Données</t>
+  </si>
+  <si>
+    <t>L'affaire est stockée dans la Base de Données</t>
+  </si>
+  <si>
+    <t>Chargement de la  BD Essais</t>
+  </si>
+  <si>
+    <t>Ajout d'une affaire</t>
+  </si>
+  <si>
+    <t>Le controlleur clique sur le bouton pour ajouter une affaire</t>
+  </si>
+  <si>
+    <t>Le controlleur rempli le formulaire pour la création de l'affaire</t>
+  </si>
+  <si>
+    <t>L'affaire est reçu par la BDD</t>
+  </si>
+  <si>
+    <t>Stockage de l'affaire dans la BDD</t>
+  </si>
+  <si>
+    <t>L'affaire est stockée dans la BDD</t>
+  </si>
+  <si>
+    <t>Modification de la nouvelle affaire</t>
+  </si>
+  <si>
+    <t>Le controlleur visualise la nouvelle affaire</t>
+  </si>
+  <si>
+    <t>Le controlleur clique sur le bouton pour modifier cette affaire</t>
+  </si>
+  <si>
+    <t>Le controlleur effectue une modification</t>
+  </si>
+  <si>
+    <t>Le controlleur enregistre sa modification</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Stocker les modifications sur l'affaire</t>
+  </si>
+  <si>
+    <t>La requête contennant les modifications est envoyé vers la BDD</t>
+  </si>
+  <si>
+    <t>La BDD reçois la requête</t>
+  </si>
+  <si>
+    <t>Les changements on été éffectué et sont visibles depuis le poste controlleur</t>
+  </si>
+  <si>
+    <t>Création de la liste des essais</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -543,21 +576,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="56.42578125" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="62.08984375" customWidth="1"/>
+    <col min="3" max="3" width="49.7265625" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
@@ -565,7 +598,7 @@
       <c r="C1" s="5"/>
       <c r="D1" s="5"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -579,161 +612,385 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
       <c r="D3" s="8"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>1</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>2</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>3</v>
-      </c>
-      <c r="B10" s="4" t="s">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
-      </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="3">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="3">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="3">
         <v>3</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="B25" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="3">
+        <v>4</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="3">
+        <v>1</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="3">
+        <v>2</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="8"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="3">
+        <v>1</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="3">
+        <v>2</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="3">
+        <v>1</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="3">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="3">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="3">
+        <v>1</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="3">
+        <v>2</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A41:D41"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A27:D27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analyse/Hugo/scenariiHugo.xlsx
+++ b/Analyse/Hugo/scenariiHugo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\testDeVerinSurBancHydraulique\Analyse\Hugo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F301451F-68CB-4B24-A7D5-69EE71B28A69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9A509B-1D89-47EC-A75B-4F80F0D3785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="42">
   <si>
     <t>Étapes</t>
   </si>
@@ -123,7 +123,34 @@
     <t>Les changements on été éffectué et sont visibles depuis le poste controlleur</t>
   </si>
   <si>
-    <t>Création de la liste des essais</t>
+    <t>Gestion des listes d'essais</t>
+  </si>
+  <si>
+    <t>Création essai</t>
+  </si>
+  <si>
+    <t>Le controlleur clique sur le bouton pour ajouter un essai</t>
+  </si>
+  <si>
+    <t>Le controlleur rempli le formulaire de création d'essai</t>
+  </si>
+  <si>
+    <t>Envoi de l'essai vers la BDD</t>
+  </si>
+  <si>
+    <t>Le controlleur clique sur le bouton pour enregistrer l'essai</t>
+  </si>
+  <si>
+    <t>L'essai part via une requpete API dans la BDD</t>
+  </si>
+  <si>
+    <t>L'essai est stockée dans la BDD</t>
+  </si>
+  <si>
+    <t>Visualisation du nouvel essai créer</t>
+  </si>
+  <si>
+    <t>L'essai est visible via le poste controlleur</t>
   </si>
 </sst>
 </file>
@@ -241,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -261,6 +288,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -898,7 +934,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -908,7 +944,9 @@
       <c r="A35" s="3">
         <v>1</v>
       </c>
-      <c r="B35" s="4"/>
+      <c r="B35" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
     </row>
@@ -916,45 +954,53 @@
       <c r="A36" s="3">
         <v>2</v>
       </c>
-      <c r="B36" s="4"/>
+      <c r="B36" s="4" t="s">
+        <v>35</v>
+      </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="8"/>
+      <c r="A37" s="9">
+        <v>3</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="3">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
+      <c r="A38" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>2</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -964,33 +1010,27 @@
       <c r="A42" s="3">
         <v>1</v>
       </c>
-      <c r="B42" s="4"/>
+      <c r="B42" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="3">
-        <v>2</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
     <mergeCell ref="A41:D41"/>
     <mergeCell ref="A14:D14"/>
     <mergeCell ref="A16:D16"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Analyse/Hugo/scenariiHugo.xlsx
+++ b/Analyse/Hugo/scenariiHugo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Documents\testDeVerinSurBancHydraulique\Analyse\Hugo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9A509B-1D89-47EC-A75B-4F80F0D3785D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC949CD-8099-4E6A-8878-B2AB30E2F5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -96,18 +96,6 @@
     <t>Modification de la nouvelle affaire</t>
   </si>
   <si>
-    <t>Le controlleur visualise la nouvelle affaire</t>
-  </si>
-  <si>
-    <t>Le controlleur clique sur le bouton pour modifier cette affaire</t>
-  </si>
-  <si>
-    <t>Le controlleur effectue une modification</t>
-  </si>
-  <si>
-    <t>Le controlleur enregistre sa modification</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -120,27 +108,15 @@
     <t>La BDD reçois la requête</t>
   </si>
   <si>
-    <t>Les changements on été éffectué et sont visibles depuis le poste controlleur</t>
-  </si>
-  <si>
     <t>Gestion des listes d'essais</t>
   </si>
   <si>
     <t>Création essai</t>
   </si>
   <si>
-    <t>Le controlleur clique sur le bouton pour ajouter un essai</t>
-  </si>
-  <si>
-    <t>Le controlleur rempli le formulaire de création d'essai</t>
-  </si>
-  <si>
     <t>Envoi de l'essai vers la BDD</t>
   </si>
   <si>
-    <t>Le controlleur clique sur le bouton pour enregistrer l'essai</t>
-  </si>
-  <si>
     <t>L'essai part via une requpete API dans la BDD</t>
   </si>
   <si>
@@ -150,7 +126,31 @@
     <t>Visualisation du nouvel essai créer</t>
   </si>
   <si>
-    <t>L'essai est visible via le poste controlleur</t>
+    <t>Le contrôleur visualise la nouvelle affaire</t>
+  </si>
+  <si>
+    <t>Le contrôleur clique sur le bouton pour modifier cette affaire</t>
+  </si>
+  <si>
+    <t>Le contrôleur effectue une modification</t>
+  </si>
+  <si>
+    <t>Le contrôleur enregistre sa modification</t>
+  </si>
+  <si>
+    <t>Les changements on été éffectué et sont visibles depuis le poste contrôleur</t>
+  </si>
+  <si>
+    <t>Le contrôleur clique sur le bouton pour ajouter un essai</t>
+  </si>
+  <si>
+    <t>Le contrôleur rempli le formulaire de création d'essai</t>
+  </si>
+  <si>
+    <t>Le contrôleur clique sur le bouton pour enregistrer l'essai</t>
+  </si>
+  <si>
+    <t>L'essai est visible via le poste contrôleur</t>
   </si>
 </sst>
 </file>
@@ -278,6 +278,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -288,15 +297,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -615,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,12 +627,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -649,12 +649,12 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -677,12 +677,12 @@
       <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
@@ -715,12 +715,12 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
@@ -743,12 +743,12 @@
       <c r="D12" s="4"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
@@ -765,12 +765,12 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="8"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -793,12 +793,12 @@
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="8"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
@@ -821,22 +821,22 @@
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>1</v>
       </c>
       <c r="B23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="D23" s="1"/>
     </row>
@@ -845,10 +845,10 @@
         <v>2</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -867,25 +867,25 @@
         <v>4</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="8"/>
+      <c r="A27" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>1</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -895,7 +895,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -905,18 +905,18 @@
         <v>2</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
+      <c r="A32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
@@ -933,19 +933,19 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="8"/>
+      <c r="A34" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>1</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -955,35 +955,35 @@
         <v>2</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="9">
+      <c r="A37" s="5">
         <v>3</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="11"/>
+      <c r="B37" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="7"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="8"/>
+      <c r="A38" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>1</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
@@ -993,18 +993,18 @@
         <v>2</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="8"/>
+      <c r="A41" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
@@ -1018,11 +1018,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A32:D32"/>
     <mergeCell ref="A34:D34"/>
     <mergeCell ref="A38:D38"/>
     <mergeCell ref="A41:D41"/>
@@ -1031,6 +1026,11 @@
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A22:D22"/>
     <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A32:D32"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
